--- a/en/application_framework/application_framework/libraries/images/system_messaging/images.xlsx
+++ b/en/application_framework/application_framework/libraries/images/system_messaging/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\libraries\images\system_messaging\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F38AF9-6DBF-45E5-9C53-681C4334321A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,6 +128,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -143,7 +152,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="メモ 148"/>
+        <xdr:cNvPr id="149" name="メモ 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -384,7 +399,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="角丸四角形 67"/>
+        <xdr:cNvPr id="68" name="角丸四角形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -450,7 +471,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="角丸四角形 65"/>
+        <xdr:cNvPr id="66" name="角丸四角形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -581,7 +608,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="角丸四角形 62"/>
+        <xdr:cNvPr id="63" name="角丸四角形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -712,7 +745,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="角丸四角形 54"/>
+        <xdr:cNvPr id="55" name="角丸四角形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -776,7 +815,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="角丸四角形 56"/>
+        <xdr:cNvPr id="57" name="角丸四角形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -840,7 +885,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="角丸四角形 66"/>
+        <xdr:cNvPr id="67" name="角丸四角形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -904,7 +955,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="角丸四角形 68"/>
+        <xdr:cNvPr id="69" name="角丸四角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -973,7 +1030,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="角丸四角形 69"/>
+        <xdr:cNvPr id="70" name="角丸四角形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1043,7 +1106,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート : 磁気ディスク 2"/>
+        <xdr:cNvPr id="3" name="フローチャート : 磁気ディスク 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1102,7 +1171,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="円/楕円 3"/>
+        <xdr:cNvPr id="4" name="円/楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1154,7 +1229,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="6"/>
           <a:endCxn id="3" idx="2"/>
@@ -1204,7 +1285,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="円/楕円 72"/>
+        <xdr:cNvPr id="73" name="円/楕円 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1256,7 +1343,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="直線矢印コネクタ 73"/>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="4"/>
           <a:endCxn id="73" idx="2"/>
@@ -1307,7 +1400,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1370,7 +1469,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="メモ 16"/>
+        <xdr:cNvPr id="17" name="メモ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1594,7 +1699,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="テキスト ボックス 74"/>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1657,7 +1768,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="角丸四角形 75"/>
+        <xdr:cNvPr id="76" name="角丸四角形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1726,7 +1843,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="角丸四角形 76"/>
+        <xdr:cNvPr id="77" name="角丸四角形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1796,7 +1919,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="フローチャート : 磁気ディスク 77"/>
+        <xdr:cNvPr id="78" name="フローチャート : 磁気ディスク 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1855,7 +1984,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="円/楕円 78"/>
+        <xdr:cNvPr id="79" name="円/楕円 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1907,7 +2042,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="79" idx="6"/>
           <a:endCxn id="78" idx="2"/>
@@ -1957,7 +2098,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="円/楕円 80"/>
+        <xdr:cNvPr id="81" name="円/楕円 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2009,7 +2156,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="78" idx="4"/>
           <a:endCxn id="81" idx="2"/>
@@ -2060,7 +2213,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="テキスト ボックス 82"/>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2123,7 +2282,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="メモ 83"/>
+        <xdr:cNvPr id="84" name="メモ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2361,7 +2526,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="テキスト ボックス 84"/>
+        <xdr:cNvPr id="85" name="テキスト ボックス 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2424,7 +2595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="フローチャート : 磁気ディスク 85"/>
+        <xdr:cNvPr id="86" name="フローチャート : 磁気ディスク 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2483,7 +2660,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="円/楕円 86"/>
+        <xdr:cNvPr id="87" name="円/楕円 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2535,7 +2718,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87"/>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="6"/>
           <a:endCxn id="86" idx="2"/>
@@ -2587,7 +2776,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="円/楕円 88"/>
+        <xdr:cNvPr id="89" name="円/楕円 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2639,7 +2834,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="直線矢印コネクタ 89"/>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="89" idx="2"/>
           <a:endCxn id="86" idx="4"/>
@@ -2690,7 +2891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="メモ 90"/>
+        <xdr:cNvPr id="91" name="メモ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2931,7 +3138,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2994,7 +3207,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直線矢印コネクタ 96"/>
+        <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="79" idx="4"/>
           <a:endCxn id="87" idx="0"/>
@@ -3044,7 +3263,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="テキスト ボックス 99"/>
+        <xdr:cNvPr id="100" name="テキスト ボックス 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3144,7 +3369,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="円/楕円 100"/>
+        <xdr:cNvPr id="101" name="円/楕円 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3196,7 +3427,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="直線矢印コネクタ 101"/>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="86" idx="3"/>
           <a:endCxn id="101" idx="7"/>
@@ -3246,7 +3483,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="テキスト ボックス 102"/>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3309,7 +3552,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="直線矢印コネクタ 105"/>
+        <xdr:cNvPr id="106" name="直線矢印コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="4"/>
           <a:endCxn id="101" idx="0"/>
@@ -3359,7 +3608,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="角丸四角形 108"/>
+        <xdr:cNvPr id="109" name="角丸四角形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3428,7 +3683,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="角丸四角形 109"/>
+        <xdr:cNvPr id="110" name="角丸四角形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3498,7 +3759,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="メモ 116"/>
+        <xdr:cNvPr id="117" name="メモ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3725,7 +3992,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="フローチャート : 磁気ディスク 118"/>
+        <xdr:cNvPr id="119" name="フローチャート : 磁気ディスク 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3784,7 +4057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="円/楕円 119"/>
+        <xdr:cNvPr id="120" name="円/楕円 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3836,7 +4115,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直線矢印コネクタ 120"/>
+        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="120" idx="6"/>
           <a:endCxn id="119" idx="2"/>
@@ -3888,7 +4173,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="円/楕円 121"/>
+        <xdr:cNvPr id="122" name="円/楕円 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3940,7 +4231,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="直線矢印コネクタ 122"/>
+        <xdr:cNvPr id="123" name="直線矢印コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="122" idx="2"/>
           <a:endCxn id="119" idx="4"/>
@@ -3991,7 +4288,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="テキスト ボックス 125"/>
+        <xdr:cNvPr id="126" name="テキスト ボックス 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4054,7 +4357,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="テキスト ボックス 128"/>
+        <xdr:cNvPr id="129" name="テキスト ボックス 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4154,7 +4463,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="円/楕円 129"/>
+        <xdr:cNvPr id="130" name="円/楕円 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4206,7 +4521,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="直線矢印コネクタ 130"/>
+        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="119" idx="3"/>
           <a:endCxn id="130" idx="7"/>
@@ -4256,7 +4577,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="テキスト ボックス 131"/>
+        <xdr:cNvPr id="132" name="テキスト ボックス 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4319,7 +4646,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="直線矢印コネクタ 132"/>
+        <xdr:cNvPr id="133" name="直線矢印コネクタ 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="120" idx="4"/>
           <a:endCxn id="130" idx="0"/>
@@ -4369,7 +4702,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="角丸四角形 133"/>
+        <xdr:cNvPr id="134" name="角丸四角形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4438,7 +4777,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="角丸四角形 134"/>
+        <xdr:cNvPr id="135" name="角丸四角形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4508,7 +4853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="フローチャート : 磁気ディスク 135"/>
+        <xdr:cNvPr id="136" name="フローチャート : 磁気ディスク 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4567,7 +4918,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="円/楕円 136"/>
+        <xdr:cNvPr id="137" name="円/楕円 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4619,7 +4976,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="138" name="直線矢印コネクタ 137"/>
+        <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="137" idx="6"/>
           <a:endCxn id="136" idx="2"/>
@@ -4669,7 +5032,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="円/楕円 138"/>
+        <xdr:cNvPr id="139" name="円/楕円 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4721,7 +5090,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="140" name="直線矢印コネクタ 139"/>
+        <xdr:cNvPr id="140" name="直線矢印コネクタ 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="136" idx="4"/>
           <a:endCxn id="139" idx="2"/>
@@ -4772,7 +5147,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="テキスト ボックス 140"/>
+        <xdr:cNvPr id="141" name="テキスト ボックス 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4835,7 +5216,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="メモ 141"/>
+        <xdr:cNvPr id="142" name="メモ 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5073,7 +5460,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="テキスト ボックス 142"/>
+        <xdr:cNvPr id="143" name="テキスト ボックス 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5136,7 +5529,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="フローチャート : 磁気ディスク 143"/>
+        <xdr:cNvPr id="144" name="フローチャート : 磁気ディスク 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5195,7 +5594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="円/楕円 144"/>
+        <xdr:cNvPr id="145" name="円/楕円 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5247,7 +5652,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="直線矢印コネクタ 145"/>
+        <xdr:cNvPr id="146" name="直線矢印コネクタ 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="145" idx="6"/>
           <a:endCxn id="144" idx="2"/>
@@ -5299,7 +5710,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="円/楕円 146"/>
+        <xdr:cNvPr id="147" name="円/楕円 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5351,7 +5768,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="直線矢印コネクタ 147"/>
+        <xdr:cNvPr id="148" name="直線矢印コネクタ 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="147" idx="2"/>
           <a:endCxn id="144" idx="4"/>
@@ -5402,7 +5825,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="テキスト ボックス 150"/>
+        <xdr:cNvPr id="151" name="テキスト ボックス 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5465,7 +5894,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="テキスト ボックス 151"/>
+        <xdr:cNvPr id="152" name="テキスト ボックス 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5528,7 +5963,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="153" name="直線矢印コネクタ 152"/>
+        <xdr:cNvPr id="153" name="直線矢印コネクタ 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="155" idx="4"/>
           <a:endCxn id="137" idx="0"/>
@@ -5578,7 +6019,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="テキスト ボックス 153"/>
+        <xdr:cNvPr id="154" name="テキスト ボックス 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5678,7 +6125,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="円/楕円 154"/>
+        <xdr:cNvPr id="155" name="円/楕円 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5730,7 +6183,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="156" name="直線矢印コネクタ 155"/>
+        <xdr:cNvPr id="156" name="直線矢印コネクタ 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="144" idx="3"/>
           <a:endCxn id="155" idx="7"/>
@@ -5780,7 +6239,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="テキスト ボックス 156"/>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5843,7 +6308,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="158" name="直線矢印コネクタ 157"/>
+        <xdr:cNvPr id="158" name="直線矢印コネクタ 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="145" idx="4"/>
           <a:endCxn id="155" idx="0"/>
@@ -5893,7 +6364,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="角丸四角形 94"/>
+        <xdr:cNvPr id="95" name="角丸四角形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5927,7 +6404,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -5937,7 +6414,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送受信電文全体</a:t>
+            <a:t>All sent and received messages</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5946,8 +6423,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -5959,13 +6436,19 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="角丸四角形 95"/>
+        <xdr:cNvPr id="96" name="角丸四角形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14878049" y="1885950"/>
-          <a:ext cx="3724275" cy="1457325"/>
+          <a:off x="14335125" y="1885950"/>
+          <a:ext cx="4267199" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5993,32 +6476,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メッセージボディ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -6032,21 +6489,11 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>バイナリ列</a:t>
-          </a:r>
+            <a:t>Message body</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:solidFill>
@@ -6058,18 +6505,8 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>(binary string)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6083,20 +6520,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="角丸四角形 97"/>
+        <xdr:cNvPr id="98" name="角丸四角形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1000125" y="2028825"/>
-          <a:ext cx="3924300" cy="1438275"/>
+          <a:off x="10801350" y="1885950"/>
+          <a:ext cx="3371850" cy="1438275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6124,32 +6567,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>プロトコルヘッダ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -6163,22 +6580,9 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>(HTTP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ヘッダ等に保持されるデータ</a:t>
-          </a:r>
-          <a:r>
+            <a:t>Protocol header </a:t>
+          </a:r>
+          <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6">
@@ -6189,18 +6593,20 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(Data held in HTTP header etc.)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6208,26 +6614,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>85723</xdr:colOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9523</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="角丸四角形 98"/>
+        <xdr:cNvPr id="99" name="角丸四角形 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11887198" y="2886075"/>
-          <a:ext cx="1714501" cy="352423"/>
+          <a:off x="11363326" y="2743200"/>
+          <a:ext cx="2276474" cy="352423"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6255,7 +6667,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -6263,7 +6675,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>共通プロトコルヘッダ</a:t>
+            <a:t>Common protocol header</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6272,26 +6684,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>180977</xdr:colOff>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="角丸四角形 103"/>
+        <xdr:cNvPr id="104" name="角丸四角形 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15001875" y="2733677"/>
-          <a:ext cx="2181227" cy="352423"/>
+          <a:off x="14525625" y="2733677"/>
+          <a:ext cx="2162175" cy="352423"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6319,7 +6737,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -6327,7 +6745,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>フレームワーク制御ヘッダ</a:t>
+            <a:t>Framework control header</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6349,7 +6767,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="メモ 106"/>
+        <xdr:cNvPr id="107" name="メモ 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6399,12 +6823,20 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Message</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>メッセージ</a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
@@ -6445,20 +6877,12 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信宛先</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>:</a:t>
+            <a:t>Send address:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -6505,7 +6929,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="角丸四角形 107"/>
+        <xdr:cNvPr id="108" name="角丸四角形 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6542,7 +6972,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -6552,8 +6982,18 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>アプリケーション</a:t>
-          </a:r>
+            <a:t>Application</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6567,20 +7007,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="角丸四角形 110"/>
+        <xdr:cNvPr id="111" name="角丸四角形 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14630400" y="4457700"/>
-          <a:ext cx="1200150" cy="3771900"/>
+          <a:ext cx="1962150" cy="3771900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6612,7 +7058,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
@@ -6622,7 +7068,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>外部システム</a:t>
+            <a:t>External System</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6644,7 +7090,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="円/楕円 112"/>
+        <xdr:cNvPr id="113" name="円/楕円 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6696,7 +7148,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="円/楕円 114"/>
+        <xdr:cNvPr id="115" name="円/楕円 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6748,7 +7206,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="116" name="直線矢印コネクタ 115"/>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="113" idx="6"/>
           <a:endCxn id="115" idx="2"/>
@@ -6799,7 +7263,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="テキスト ボックス 117"/>
+        <xdr:cNvPr id="118" name="テキスト ボックス 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6840,68 +7310,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>②送信</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="メモ 123"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12201525" y="5495925"/>
-          <a:ext cx="2276475" cy="1019174"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 15556"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メッセージ</a:t>
+            <a:t>②</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
@@ -6909,61 +7318,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ID:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Request1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> 宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>URI</a:t>
+            <a:t>Send</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -6978,6 +7333,124 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="メモ 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12201525" y="5495925"/>
+          <a:ext cx="2276475" cy="1019174"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 15556"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Message ID:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Request1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send address:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Address URI</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
@@ -6990,7 +7463,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="テキスト ボックス 124"/>
+        <xdr:cNvPr id="125" name="テキスト ボックス 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7026,13 +7505,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信電文</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Sent message</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7053,7 +7537,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="円/楕円 127"/>
+        <xdr:cNvPr id="128" name="円/楕円 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7105,7 +7595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="円/楕円 158"/>
+        <xdr:cNvPr id="159" name="円/楕円 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7157,7 +7653,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="160" name="直線矢印コネクタ 159"/>
+        <xdr:cNvPr id="160" name="直線矢印コネクタ 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="159" idx="2"/>
           <a:endCxn id="128" idx="6"/>
@@ -7208,7 +7710,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="テキスト ボックス 160"/>
+        <xdr:cNvPr id="161" name="テキスト ボックス 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7244,13 +7752,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受信電文</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Received message</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7258,8 +7771,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -7271,13 +7784,19 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="テキスト ボックス 161"/>
+        <xdr:cNvPr id="162" name="テキスト ボックス 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9801225" y="6000750"/>
-          <a:ext cx="2200275" cy="342900"/>
+          <a:off x="10458450" y="6000750"/>
+          <a:ext cx="1543050" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7307,12 +7826,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>応答処理</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Response Process</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7334,7 +7853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="テキスト ボックス 163"/>
+        <xdr:cNvPr id="164" name="テキスト ボックス 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7375,13 +7900,16 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>①受信</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Receive</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -7410,7 +7938,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="168" name="直線矢印コネクタ 167"/>
+        <xdr:cNvPr id="168" name="直線矢印コネクタ 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="128" idx="4"/>
           <a:endCxn id="113" idx="0"/>
@@ -7460,7 +7994,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="メモ 184"/>
+        <xdr:cNvPr id="185" name="メモ 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7510,20 +8050,12 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メッセージ</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>ID:</a:t>
+            <a:t>Message ID:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -7547,40 +8079,20 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send address:</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送信宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
             <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>宛先</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -7592,7 +8104,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>URI</a:t>
+            <a:t>Address URI</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -7619,7 +8131,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="角丸四角形 185"/>
+        <xdr:cNvPr id="186" name="角丸四角形 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7656,7 +8174,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -7666,8 +8184,18 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>アプリケーション</a:t>
-          </a:r>
+            <a:t>Application</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7681,20 +8209,26 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="角丸四角形 186"/>
+        <xdr:cNvPr id="187" name="角丸四角形 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14630400" y="4457700"/>
-          <a:ext cx="1200150" cy="3771900"/>
+          <a:off x="14630400" y="9429750"/>
+          <a:ext cx="1962150" cy="3771900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7726,7 +8260,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
@@ -7736,7 +8270,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>外部システム</a:t>
+            <a:t>External System</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7758,7 +8292,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="188" name="円/楕円 187"/>
+        <xdr:cNvPr id="188" name="円/楕円 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7810,7 +8350,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="円/楕円 188"/>
+        <xdr:cNvPr id="189" name="円/楕円 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7862,7 +8408,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="190" name="直線矢印コネクタ 189"/>
+        <xdr:cNvPr id="190" name="直線矢印コネクタ 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="194" idx="6"/>
           <a:endCxn id="195" idx="2"/>
@@ -7913,7 +8465,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="テキスト ボックス 190"/>
+        <xdr:cNvPr id="191" name="テキスト ボックス 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7954,8 +8512,21 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>②受信</a:t>
-          </a:r>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Receive</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7976,7 +8547,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="メモ 191"/>
+        <xdr:cNvPr id="192" name="メモ 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8010,12 +8587,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Message</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>メッセージ</a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
@@ -8057,20 +8642,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信宛先</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>:</a:t>
+            <a:t>Send address:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -8117,7 +8694,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="テキスト ボックス 192"/>
+        <xdr:cNvPr id="193" name="テキスト ボックス 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8153,299 +8736,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信電文</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="円/楕円 193"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10401300" y="5124449"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="195" name="円/楕円 194"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15030450" y="5124449"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="196" name="直線矢印コネクタ 195"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="189" idx="2"/>
-          <a:endCxn id="188" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10801350" y="11991975"/>
-          <a:ext cx="4229100" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="197" name="テキスト ボックス 196"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12239625" y="12858750"/>
-          <a:ext cx="2200275" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受信電文</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="テキスト ボックス 198"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10601325" y="5314950"/>
-          <a:ext cx="1400175" cy="685799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>①送信</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Sent message</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -8461,25 +8758,204 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="テキスト ボックス 200"/>
+        <xdr:cNvPr id="194" name="円/楕円 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10401300" y="5124449"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="円/楕円 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15030450" y="5124449"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="196" name="直線矢印コネクタ 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="189" idx="2"/>
+          <a:endCxn id="188" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10801350" y="11991975"/>
+          <a:ext cx="4229100" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="テキスト ボックス 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6400800" y="10287000"/>
+          <a:off x="12239625" y="12858750"/>
           <a:ext cx="2200275" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8510,12 +8986,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>応答処理</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Received message</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8524,6 +9000,160 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="テキスト ボックス 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10601325" y="5314950"/>
+          <a:ext cx="1400175" cy="685799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="テキスト ボックス 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="10287000"/>
+          <a:ext cx="2200275" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>応答処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>55</xdr:row>
@@ -8537,7 +9167,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="202" name="直線矢印コネクタ 201"/>
+        <xdr:cNvPr id="202" name="直線矢印コネクタ 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="81" idx="4"/>
           <a:endCxn id="89" idx="0"/>
@@ -8574,8 +9210,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -8587,13 +9223,19 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="テキスト ボックス 202"/>
+        <xdr:cNvPr id="203" name="テキスト ボックス 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14401800" y="10972800"/>
-          <a:ext cx="2200275" cy="342900"/>
+          <a:off x="15059025" y="10972800"/>
+          <a:ext cx="1543050" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8623,12 +9265,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>応答処理</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Response Process</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8650,7 +9292,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="204" name="直線矢印コネクタ 203"/>
+        <xdr:cNvPr id="204" name="直線矢印コネクタ 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="195" idx="4"/>
           <a:endCxn id="189" idx="0"/>
@@ -8700,7 +9348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="角丸四角形 126"/>
+        <xdr:cNvPr id="127" name="角丸四角形 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8751,26 +9405,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9523</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="角丸四角形 149"/>
+        <xdr:cNvPr id="150" name="角丸四角形 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17402175" y="2743200"/>
-          <a:ext cx="1000125" cy="352423"/>
+          <a:off x="16840201" y="2743200"/>
+          <a:ext cx="1562100" cy="352423"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8798,7 +9458,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -8806,7 +9466,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>業務データ</a:t>
+            <a:t>Business data</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8817,7 +9477,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8859,7 +9519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8892,9 +9552,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8927,6 +9604,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9102,10 +9796,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:AZ117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CR6" sqref="CR6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9157,7 +9853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9170,7 +9866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/en/application_framework/application_framework/libraries/images/system_messaging/images.xlsx
+++ b/en/application_framework/application_framework/libraries/images/system_messaging/images.xlsx
@@ -8,16 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\libraries\images\system_messaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F38AF9-6DBF-45E5-9C53-681C4334321A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E11BD3-7872-4C81-BBB5-D5AD2D8541FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="360" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="795" windowWidth="14265" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -140,13 +148,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -163,8 +171,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124325" y="25917525"/>
-          <a:ext cx="2276475" cy="1704975"/>
+          <a:off x="4157942" y="24708971"/>
+          <a:ext cx="2868145" cy="1674719"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -192,20 +200,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID:</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Message ID:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -235,20 +235,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>関連メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID: </a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Correlation message ID: </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
@@ -265,31 +257,23 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send address:</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送信宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -297,34 +281,18 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送信キュー名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t>Send queue name</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>応答宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Response address:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -343,20 +311,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>有効期限</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Expiry interval:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -386,14 +346,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -410,8 +370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800101" y="1371600"/>
-          <a:ext cx="8201024" cy="2057400"/>
+          <a:off x="219076" y="1371600"/>
+          <a:ext cx="9305924" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -439,7 +399,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -449,7 +409,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送受信電文全体</a:t>
+            <a:t>All sent and received messages</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -458,14 +418,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -482,8 +442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076824" y="1885950"/>
-          <a:ext cx="3724275" cy="1457325"/>
+          <a:off x="5248274" y="1885950"/>
+          <a:ext cx="4143376" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -511,32 +471,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メッセージボディ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -550,21 +484,11 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>バイナリ列</a:t>
-          </a:r>
+            <a:t>Message body</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:solidFill>
@@ -576,7 +500,383 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>)</a:t>
+            <a:t>(Binary string)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="角丸四角形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="1885950"/>
+          <a:ext cx="4762500" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12208"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Protocol header</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(Data held in JMS Header)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="角丸四角形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428626" y="2743200"/>
+          <a:ext cx="2105024" cy="352423"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9558"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Common protocol header</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>161927</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="角丸四角形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5381625" y="2733677"/>
+          <a:ext cx="2181227" cy="352423"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9558"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Framework control header</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="角丸四角形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="2743200"/>
+          <a:ext cx="2305050" cy="352423"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9558"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>Individual protocol header</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="角丸四角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="4743450"/>
+          <a:ext cx="1800226" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6991"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Application</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
             <a:solidFill>
@@ -595,23 +895,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>99177</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="角丸四角形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+        <xdr:cNvPr id="70" name="角丸四角形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -619,27 +919,28 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1000125" y="2028825"/>
-          <a:ext cx="3924300" cy="1438275"/>
+          <a:off x="7311283" y="4370294"/>
+          <a:ext cx="1864659" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
-            <a:gd name="adj" fmla="val 12208"/>
+            <a:gd name="adj" fmla="val 10174"/>
           </a:avLst>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:prstDash val="dash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -651,9 +952,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -661,19 +962,706 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>プロトコルヘッダ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:t>External System</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート : 磁気ディスク 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="4972050"/>
+          <a:ext cx="1181100" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send queue</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円/楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="5400675"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="6"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="5314950"/>
+          <a:ext cx="1419225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>49872</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="円/楕円 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7714695" y="5017434"/>
+          <a:ext cx="403412" cy="389965"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1682</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="4"/>
+          <a:endCxn id="73" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4034118" y="5210736"/>
+          <a:ext cx="3680577" cy="1681"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="5600700"/>
+          <a:ext cx="1400175" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="メモ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4157942" y="5378824"/>
+          <a:ext cx="2868145" cy="1674719"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 15556"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Message ID:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Request1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Correlation message ID: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>－</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send address:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send queue name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Response address:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> －</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Expiry interval:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>300sec</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="テキスト ボックス 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152901" y="6838950"/>
+          <a:ext cx="2324100" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Sent message</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="角丸四角形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="8829675"/>
+          <a:ext cx="1800226" cy="6000750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6991"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -687,33 +1675,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>(JMS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ヘッダ等に保持されるデータ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:t>Application</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
             <a:solidFill>
@@ -732,23 +1694,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200023</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>99177</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="角丸四角形 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+        <xdr:cNvPr id="77" name="角丸四角形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -756,293 +1718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200148" y="2886075"/>
-          <a:ext cx="1714501" cy="352423"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9558"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>共通プロトコルヘッダ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161927</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>180977</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="角丸四角形 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5200650" y="2733677"/>
-          <a:ext cx="2181227" cy="352423"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9558"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>フレームワーク制御ヘッダ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="角丸四角形 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3057525" y="2886075"/>
-          <a:ext cx="1714501" cy="352423"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 9558"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>個別プロトコルヘッダ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="角丸四角形 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="4743450"/>
-          <a:ext cx="1800226" cy="2914650"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 6991"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アプリケーション</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="角丸四角形 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6600825" y="4743450"/>
-          <a:ext cx="1200150" cy="2914650"/>
+          <a:off x="7311283" y="8236324"/>
+          <a:ext cx="1864659" cy="5883088"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1074,7 +1751,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="75000"/>
@@ -1084,7 +1761,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>外部システム</a:t>
+            <a:t>External System</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1093,23 +1770,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="フローチャート : 磁気ディスク 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+        <xdr:cNvPr id="78" name="フローチャート : 磁気ディスク 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,8 +1794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000376" y="5257800"/>
-          <a:ext cx="1000124" cy="685800"/>
+          <a:off x="2819400" y="8915400"/>
+          <a:ext cx="1181100" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1144,12 +1821,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信キュー</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send queue</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1160,21 +1837,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="円/楕円 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+        <xdr:cNvPr id="79" name="円/楕円 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,33 +1895,33 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="6"/>
-          <a:endCxn id="3" idx="2"/>
+          <a:stCxn id="79" idx="6"/>
+          <a:endCxn id="78" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1400175" y="5600700"/>
-          <a:ext cx="1600201" cy="0"/>
+          <a:off x="1400175" y="9258300"/>
+          <a:ext cx="1419225" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1272,23 +1949,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>49872</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="円/楕円 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+        <xdr:cNvPr id="81" name="円/楕円 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,8 +1973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7000875" y="5400675"/>
-          <a:ext cx="400050" cy="400050"/>
+          <a:off x="7714695" y="8883463"/>
+          <a:ext cx="403412" cy="389965"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1332,33 +2009,33 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1681</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="4"/>
-          <a:endCxn id="73" idx="2"/>
+          <a:stCxn id="78" idx="4"/>
+          <a:endCxn id="81" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="5600700"/>
-          <a:ext cx="3000375" cy="0"/>
+          <a:off x="4034118" y="9076765"/>
+          <a:ext cx="3680577" cy="1681"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1389,21 +2066,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +2088,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="5600700"/>
+          <a:off x="1200150" y="9686925"/>
           <a:ext cx="1400175" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1447,8 +2124,21 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>①送信</a:t>
-          </a:r>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1457,22 +2147,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="メモ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+        <xdr:cNvPr id="84" name="メモ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,8 +2170,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124325" y="5772150"/>
-          <a:ext cx="2276475" cy="1704975"/>
+          <a:off x="4157942" y="9244853"/>
+          <a:ext cx="2868145" cy="1674719"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -1509,20 +2199,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID:</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Message ID:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -1541,26 +2223,18 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Request1</a:t>
+            <a:t>Request2</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>関連メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID: </a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Correlation message ID: </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -1579,20 +2253,39 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send address:</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>送信宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send queue name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Response address:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -1600,63 +2293,29 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t> 送信キュー名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Receive queue name</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>応答宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> －</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>有効期限</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Expiry interval:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -1686,23 +2345,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="テキスト ボックス 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+        <xdr:cNvPr id="85" name="テキスト ボックス 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1710,8 +2369,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448175" y="7124700"/>
-          <a:ext cx="1400175" cy="342900"/>
+          <a:off x="4200525" y="11210925"/>
+          <a:ext cx="2200275" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1741,12 +2400,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信電文</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Sent message</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1755,23 +2414,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="角丸四角形 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+        <xdr:cNvPr id="86" name="フローチャート : 磁気ディスク 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,50 +2438,98 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="8829675"/>
-          <a:ext cx="1800226" cy="6000750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 6991"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+          <a:off x="2819400" y="11325225"/>
+          <a:ext cx="1181100" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Receive queue</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="円/楕円 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="11896725"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アプリケーション</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1830,23 +2537,81 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="6"/>
+          <a:endCxn id="86" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="11668125"/>
+          <a:ext cx="1419225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>49872</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="角丸四角形 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+        <xdr:cNvPr id="89" name="円/楕円 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,27 +2619,21 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600825" y="8829675"/>
-          <a:ext cx="1200150" cy="6000750"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10174"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
+          <a:off x="7714695" y="11246224"/>
+          <a:ext cx="403412" cy="389964"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
           <a:schemeClr val="accent3"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
           <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -1885,20 +2644,8 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>外部システム</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1906,272 +2653,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="フローチャート : 磁気ディスク 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3000376" y="5257800"/>
-          <a:ext cx="1000124" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信キュー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="円/楕円 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1000125" y="5400675"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="79" idx="6"/>
-          <a:endCxn id="78" idx="2"/>
+          <a:stCxn id="89" idx="2"/>
+          <a:endCxn id="86" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400175" y="5600700"/>
-          <a:ext cx="1600201" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="円/楕円 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7000875" y="5400675"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="78" idx="4"/>
-          <a:endCxn id="81" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="5600700"/>
-          <a:ext cx="3000375" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4034118" y="11439525"/>
+          <a:ext cx="3680577" cy="1681"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2183,13 +2693,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2200,92 +2710,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="テキスト ボックス 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1200150" y="9686925"/>
-          <a:ext cx="1400175" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>①送信</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="メモ 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+        <xdr:cNvPr id="91" name="メモ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,8 +2734,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124325" y="5772150"/>
-          <a:ext cx="2276475" cy="1704975"/>
+          <a:off x="4157942" y="11607613"/>
+          <a:ext cx="2868145" cy="1671358"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -2304,13 +2745,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -2322,141 +2763,28 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Message ID:</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Request2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>関連メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>－</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> 送信キュー名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>応答宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受信キュー名</a:t>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Reply2</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -2470,11 +2798,87 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Correlation message ID: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Request2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send address:</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Receive queue name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Response address:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> －</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t>有効期限</a:t>
           </a:r>
           <a:r>
@@ -2499,7 +2903,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>300sec</a:t>
+            <a:t>250sec</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -2515,21 +2919,21 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="テキスト ボックス 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="11210925"/>
+          <a:off x="4200525" y="13630275"/>
           <a:ext cx="2200275" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2568,12 +2972,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信電文</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Received message</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2582,23 +2986,188 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="4"/>
+          <a:endCxn id="87" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="9886950"/>
+          <a:ext cx="0" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="フローチャート : 磁気ディスク 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+        <xdr:cNvPr id="100" name="テキスト ボックス 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1277471" y="11452413"/>
+          <a:ext cx="1602441" cy="672352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> Waiting to receive</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>timeout)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="円/楕円 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,72 +3175,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000376" y="11753850"/>
-          <a:ext cx="1000124" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受信キュー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="円/楕円 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1000125" y="11896725"/>
+          <a:off x="1000125" y="14116050"/>
           <a:ext cx="400050" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2682,14 +3186,14 @@
         <a:lnRef idx="1">
           <a:schemeClr val="accent6"/>
         </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2705,43 +3209,41 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>141439</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>30011</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="87" idx="6"/>
-          <a:endCxn id="86" idx="2"/>
+          <a:stCxn id="86" idx="3"/>
+          <a:endCxn id="101" idx="7"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400175" y="12096750"/>
-          <a:ext cx="1600201" cy="0"/>
+        <a:xfrm flipH="1">
+          <a:off x="1341589" y="12011025"/>
+          <a:ext cx="2068361" cy="1734986"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:headEnd type="oval"/>
-          <a:tailEnd type="oval"/>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2763,23 +3265,161 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="13973175"/>
+          <a:ext cx="1400175" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Receive</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直線矢印コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="4"/>
+          <a:endCxn id="101" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="12296775"/>
+          <a:ext cx="0" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="円/楕円 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+        <xdr:cNvPr id="109" name="角丸四角形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,22 +3427,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7000875" y="11896725"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:off x="800100" y="18573750"/>
+          <a:ext cx="1800226" cy="3600450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6991"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -2812,8 +3457,30 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Application</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2821,80 +3488,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="90" name="直線矢印コネクタ 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="89" idx="2"/>
-          <a:endCxn id="86" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4000500" y="12096750"/>
-          <a:ext cx="3000375" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>99177</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="メモ 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+        <xdr:cNvPr id="110" name="角丸四角形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2902,8 +3512,84 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4124325" y="12268200"/>
-          <a:ext cx="2276475" cy="1704975"/>
+          <a:off x="7311283" y="15464118"/>
+          <a:ext cx="1864659" cy="3529853"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10174"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>External System</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="メモ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4157942" y="16472647"/>
+          <a:ext cx="2868145" cy="1674719"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -2931,20 +3617,42 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Message ID:</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID:</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Request3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Correlation message ID: </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -2952,6 +3660,30 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
+            <a:t>－</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send address:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
@@ -2960,7 +3692,26 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Reply2</a:t>
+            <a:t>Receive queue name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Response address:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> －</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:solidFill>
@@ -2974,96 +3725,1363 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Expiry interval:</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>関連メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>250sec</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="フローチャート : 磁気ディスク 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="16297275"/>
+          <a:ext cx="1181100" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Receive queue</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="円/楕円 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="11896725"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="6"/>
+          <a:endCxn id="119" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="16640175"/>
+          <a:ext cx="1419225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>49872</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="円/楕円 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7714695" y="16120782"/>
+          <a:ext cx="403412" cy="389965"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直線矢印コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="122" idx="2"/>
+          <a:endCxn id="119" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4034118" y="16314084"/>
+          <a:ext cx="3680577" cy="1681"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="テキスト ボックス 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="13630275"/>
+          <a:ext cx="2200275" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Received message</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="テキスト ボックス 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1255059" y="16315766"/>
+          <a:ext cx="1580030" cy="672352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Waiting to receive</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>timeout)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="円/楕円 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="14116050"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>141439</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>30011</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="3"/>
+          <a:endCxn id="130" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1341589" y="16983075"/>
+          <a:ext cx="2068361" cy="1734986"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="テキスト ボックス 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="21316950"/>
+          <a:ext cx="1400175" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Receive</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直線矢印コネクタ 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="120" idx="4"/>
+          <a:endCxn id="130" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="12296775"/>
+          <a:ext cx="0" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="角丸四角形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="21288375"/>
+          <a:ext cx="1800226" cy="6343650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6991"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Request2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受信キュー名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+            <a:t>Application</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>99177</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="角丸四角形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7311283" y="20170588"/>
+          <a:ext cx="1864659" cy="6219265"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10174"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>External System</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="フローチャート : 磁気ディスク 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="24707850"/>
+          <a:ext cx="1181100" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send queue</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="円/楕円 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="25565100"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="6"/>
+          <a:endCxn id="136" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400175" y="25050750"/>
+          <a:ext cx="1419225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>49872</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="円/楕円 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7714695" y="24366631"/>
+          <a:ext cx="403412" cy="389965"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>20732</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直線矢印コネクタ 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="136" idx="4"/>
+          <a:endCxn id="139" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4034118" y="24559933"/>
+          <a:ext cx="3680577" cy="1681"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="テキスト ボックス 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="25765125"/>
+          <a:ext cx="1400175" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>応答宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>44262</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="メモ 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4235823" y="21188643"/>
+          <a:ext cx="2868145" cy="1671357"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 15556"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Message ID:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -3071,7 +5089,37 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t> －</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Request4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Correlation message ID: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>－</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -3082,20 +5130,69 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send address:</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>有効期限</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Receive queue name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Response address:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Send queue name</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Expiry interval:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -3127,21 +5224,21 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="テキスト ボックス 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+        <xdr:cNvPr id="143" name="テキスト ボックス 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3149,7 +5246,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="13630275"/>
+          <a:off x="4200525" y="27289125"/>
           <a:ext cx="2200275" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3180,12 +5277,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受信電文</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Sent message</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3194,52 +5291,292 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="フローチャート : 磁気ディスク 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="21097875"/>
+          <a:ext cx="1181100" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Receive queue</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="円/楕円 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000125" y="11896725"/>
+          <a:ext cx="400050" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+        <xdr:cNvPr id="146" name="直線矢印コネクタ 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="79" idx="4"/>
-          <a:endCxn id="87" idx="0"/>
+          <a:stCxn id="145" idx="6"/>
+          <a:endCxn id="144" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="9886950"/>
-          <a:ext cx="0" cy="2009775"/>
+          <a:off x="1400175" y="21440775"/>
+          <a:ext cx="1419225" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="oval"/>
+          <a:tailEnd type="oval"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>49872</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="円/楕円 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7714695" y="20827253"/>
+          <a:ext cx="403412" cy="389965"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49871</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="148" name="直線矢印コネクタ 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="147" idx="2"/>
+          <a:endCxn id="144" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4034118" y="21020555"/>
+          <a:ext cx="3680577" cy="1681"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -3250,23 +5587,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="テキスト ボックス 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+        <xdr:cNvPr id="151" name="テキスト ボックス 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3274,8 +5611,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="12087226"/>
-          <a:ext cx="1400175" cy="685799"/>
+          <a:off x="4200525" y="13630275"/>
+          <a:ext cx="2200275" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3305,44 +5642,229 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Received message</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="テキスト ボックス 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="481854" y="23700441"/>
+          <a:ext cx="2218764" cy="336177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Response Processing</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直線矢印コネクタ 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="155" idx="4"/>
+          <a:endCxn id="137" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200150" y="24574500"/>
+          <a:ext cx="0" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="テキスト ボックス 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1277471" y="21022236"/>
+          <a:ext cx="1591236" cy="672352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>②受信待機</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(or</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> タイムアウト</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Waiting to Receive</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(or timeout)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -3358,21 +5880,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="円/楕円 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+        <xdr:cNvPr id="155" name="円/楕円 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,33 +5938,33 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>141439</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>30011</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="102" name="直線矢印コネクタ 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+        <xdr:cNvPr id="156" name="直線矢印コネクタ 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="86" idx="3"/>
-          <a:endCxn id="101" idx="7"/>
+          <a:stCxn id="144" idx="3"/>
+          <a:endCxn id="155" idx="7"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1341589" y="12439650"/>
-          <a:ext cx="2158849" cy="1734986"/>
+          <a:off x="1341589" y="21783675"/>
+          <a:ext cx="2068361" cy="1734986"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3472,21 +5994,21 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="テキスト ボックス 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+        <xdr:cNvPr id="157" name="テキスト ボックス 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3530,2764 +6052,21 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>③受信</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="106" name="直線矢印コネクタ 105">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="87" idx="4"/>
-          <a:endCxn id="101" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1200150" y="12296775"/>
-          <a:ext cx="0" cy="1819275"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="角丸四角形 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="18573750"/>
-          <a:ext cx="1800226" cy="3600450"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 6991"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アプリケーション</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="角丸四角形 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6600825" y="18573750"/>
-          <a:ext cx="1200150" cy="3600450"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10174"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>外部システム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="メモ 116">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4124325" y="19602450"/>
-          <a:ext cx="2276475" cy="1704975"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 15556"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Request3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>関連メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>－</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> 受信キュー名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>応答宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> －</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>有効期限</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>250sec</a:t>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Receive</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
             <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="フローチャート : 磁気ディスク 118">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3000376" y="11753850"/>
-          <a:ext cx="1000124" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受信キュー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="円/楕円 119">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1000125" y="11896725"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="120" idx="6"/>
-          <a:endCxn id="119" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400175" y="12096750"/>
-          <a:ext cx="1600201" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:headEnd type="oval"/>
-          <a:tailEnd type="oval"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="円/楕円 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7000875" y="11896725"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="直線矢印コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="122" idx="2"/>
-          <a:endCxn id="119" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4000500" y="12096750"/>
-          <a:ext cx="3000375" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="テキスト ボックス 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4200525" y="13630275"/>
-          <a:ext cx="2200275" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受信電文</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="テキスト ボックス 128">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1200150" y="12087226"/>
-          <a:ext cx="1400175" cy="685799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>①受信待機</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(or</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> タイムアウト</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="円/楕円 129">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1000125" y="14116050"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>141439</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>30011</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="119" idx="3"/>
-          <a:endCxn id="130" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1341589" y="12439650"/>
-          <a:ext cx="2158849" cy="1734986"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="テキスト ボックス 131">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1200150" y="21316950"/>
-          <a:ext cx="1400175" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>②受信</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="直線矢印コネクタ 132">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="120" idx="4"/>
-          <a:endCxn id="130" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1200150" y="12296775"/>
-          <a:ext cx="0" cy="1819275"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="角丸四角形 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="800100" y="21288375"/>
-          <a:ext cx="1800226" cy="6343650"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 6991"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アプリケーション</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="角丸四角形 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6600825" y="21288375"/>
-          <a:ext cx="1200150" cy="6343650"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10174"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>外部システム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="フローチャート : 磁気ディスク 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3000376" y="25422225"/>
-          <a:ext cx="1000124" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信キュー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="円/楕円 136">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1000125" y="25565100"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="137" idx="6"/>
-          <a:endCxn id="136" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400175" y="25765125"/>
-          <a:ext cx="1600201" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="円/楕円 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7000875" y="25565100"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="140" name="直線矢印コネクタ 139">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="136" idx="4"/>
-          <a:endCxn id="139" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="25765125"/>
-          <a:ext cx="3000375" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="テキスト ボックス 140">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1200150" y="25765125"/>
-          <a:ext cx="1400175" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>③送信</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="メモ 141">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4200525" y="24555450"/>
-          <a:ext cx="2276475" cy="1704975"/>
-        </a:xfrm>
-        <a:prstGeom prst="foldedCorner">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 15556"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Request4</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>関連メッセージ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ID: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>－</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> 受信キュー名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>応答宛先</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信キュー名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>有効期限</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>250sec</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="テキスト ボックス 142">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4200525" y="27289125"/>
-          <a:ext cx="2200275" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>送信電文</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="フローチャート : 磁気ディスク 143">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3000376" y="11753850"/>
-          <a:ext cx="1000124" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受信キュー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="円/楕円 144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1000125" y="11896725"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="直線矢印コネクタ 145">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="145" idx="6"/>
-          <a:endCxn id="144" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400175" y="12096750"/>
-          <a:ext cx="1600201" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
-          <a:headEnd type="oval"/>
-          <a:tailEnd type="oval"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="円/楕円 146">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7000875" y="11896725"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="直線矢印コネクタ 147">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="147" idx="2"/>
-          <a:endCxn id="144" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4000500" y="12096750"/>
-          <a:ext cx="3000375" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDot"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="テキスト ボックス 150">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4200525" y="13630275"/>
-          <a:ext cx="2200275" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>受信電文</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="テキスト ボックス 151">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="400050" y="24888825"/>
-          <a:ext cx="2200275" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>応答処理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="153" name="直線矢印コネクタ 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="155" idx="4"/>
-          <a:endCxn id="137" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1200150" y="24574500"/>
-          <a:ext cx="0" cy="990600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="テキスト ボックス 153">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1200150" y="12087226"/>
-          <a:ext cx="1400175" cy="685799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>①受信待機</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(or</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t> タイムアウト</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="円/楕円 154">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1000125" y="14116050"/>
-          <a:ext cx="400050" cy="400050"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>141439</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>30011</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="156" name="直線矢印コネクタ 155">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="144" idx="3"/>
-          <a:endCxn id="155" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1341589" y="12439650"/>
-          <a:ext cx="2158849" cy="1734986"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="テキスト ボックス 156">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1200150" y="13973175"/>
-          <a:ext cx="1400175" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>②受信</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9085,14 +8864,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>89652</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>89652</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9109,8 +8888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6400800" y="10287000"/>
-          <a:ext cx="2200275" cy="342900"/>
+          <a:off x="6947652" y="10085294"/>
+          <a:ext cx="2218765" cy="336177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9140,12 +8919,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>応答処理</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Response Process</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9154,14 +8933,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>49872</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>49872</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -9181,8 +8960,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="9458325"/>
-          <a:ext cx="0" cy="2009775"/>
+          <a:off x="7916401" y="9273428"/>
+          <a:ext cx="0" cy="1972796"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9336,13 +9115,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>161927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9359,8 +9138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7600950" y="2733677"/>
-          <a:ext cx="1000125" cy="352423"/>
+          <a:off x="7705725" y="2733677"/>
+          <a:ext cx="1533525" cy="352423"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9388,7 +9167,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -9396,7 +9175,7 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>業務データ</a:t>
+            <a:t>Business data</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9799,8 +9578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:AZ117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CR6" sqref="CR6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV119" sqref="AV119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/en/application_framework/application_framework/libraries/images/system_messaging/images.xlsx
+++ b/en/application_framework/application_framework/libraries/images/system_messaging/images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\libraries\images\system_messaging\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK79798\Documents\nablarch-relation\nablarch-document\en\application_framework\application_framework\libraries\images\system_messaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E11BD3-7872-4C81-BBB5-D5AD2D8541FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA239B00-FBA6-4C99-8544-C8BF5DF4853B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="795" windowWidth="14265" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2874,20 +2876,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>有効期限</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>:</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Expiry interval:</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
@@ -9578,8 +9572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:AZ117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV119" sqref="AV119"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX83" sqref="AX83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/en/application_framework/application_framework/libraries/images/system_messaging/images.xlsx
+++ b/en/application_framework/application_framework/libraries/images/system_messaging/images.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK79798\Documents\nablarch-relation\nablarch-document\en\application_framework\application_framework\libraries\images\system_messaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA239B00-FBA6-4C99-8544-C8BF5DF4853B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DA0A3-2AE8-4862-9164-A20A216BCDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5648,19 +5648,14 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>145674</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>72134</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1748119" cy="600217"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="152" name="テキスト ボックス 151">
@@ -5674,8 +5669,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="481854" y="23700441"/>
-          <a:ext cx="2218764" cy="336177"/>
+          <a:off x="750792" y="23604487"/>
+          <a:ext cx="1748119" cy="600217"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5700,9 +5695,26 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="18000" rIns="18000" bIns="18000" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="800"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Response </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
@@ -5710,13 +5722,13 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Response Processing</a:t>
+            <a:t>processing</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -9572,9 +9584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:AZ117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX83" sqref="AX83"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
